--- a/Caven_Lib/dot/Caven_bom.xlsx
+++ b/Caven_Lib/dot/Caven_bom.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>name</t>
   </si>
@@ -102,9 +102,6 @@
   </si>
   <si>
     <t>NUM</t>
-  </si>
-  <si>
-    <t>_</t>
   </si>
   <si>
     <t>PCB</t>
@@ -143,7 +140,7 @@
     <numFmt numFmtId="176" formatCode="_ \¥* #,##0.00_ ;_ \¥* \-#,##0.00_ ;_ \¥* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ \¥* #,##0_ ;_ \¥* \-#,##0_ ;_ \¥* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="31">
+  <fonts count="32">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -155,21 +152,18 @@
       <sz val="11"/>
       <color rgb="FF018FFB"/>
       <name val="Arial"/>
-      <family val="2"/>
       <charset val="0"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF333333"/>
       <name val="楷体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF333333"/>
       <name val="黑体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -182,7 +176,6 @@
       <sz val="10"/>
       <color rgb="FF5B9BD5"/>
       <name val="黑体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -195,7 +188,6 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="2"/>
       <charset val="0"/>
     </font>
     <font>
@@ -203,19 +195,23 @@
       <color rgb="FF000000"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="黑体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
-      <family val="2"/>
       <charset val="0"/>
     </font>
     <font>
@@ -229,7 +225,6 @@
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="黑体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -588,7 +583,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -720,19 +715,6 @@
         <color rgb="FF000000"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color rgb="FFBFBFBF"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FF000000"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -902,49 +884,49 @@
     <xf numFmtId="9" fontId="0" fillId="2" borderId="0" applyBorder="0"/>
     <xf numFmtId="41" fontId="0" fillId="2" borderId="0" applyBorder="0"/>
     <xf numFmtId="42" fontId="0" fillId="2" borderId="0" applyBorder="0"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0"/>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="17" applyNumberFormat="0"/>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" applyNumberFormat="0"/>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0"/>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="18" applyNumberFormat="0"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="18" applyNumberFormat="0"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="19" applyNumberFormat="0"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0"/>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="20" applyNumberFormat="0"/>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="21" applyNumberFormat="0"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="17" applyNumberFormat="0"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="17" applyNumberFormat="0"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="18" applyNumberFormat="0"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0"/>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="19" applyNumberFormat="0"/>
     <xf numFmtId="0" fontId="23" fillId="3" borderId="20" applyNumberFormat="0"/>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="22" applyNumberFormat="0"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="23" applyNumberFormat="0"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="24" applyNumberFormat="0"/>
-    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0"/>
-    <xf numFmtId="0" fontId="28" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0"/>
-    <xf numFmtId="0" fontId="29" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0"/>
-    <xf numFmtId="0" fontId="30" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0"/>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="19" applyNumberFormat="0"/>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="21" applyNumberFormat="0"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="22" applyNumberFormat="0"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="23" applyNumberFormat="0"/>
+    <xf numFmtId="0" fontId="28" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0"/>
+    <xf numFmtId="0" fontId="29" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0"/>
+    <xf numFmtId="0" fontId="30" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0"/>
+    <xf numFmtId="0" fontId="31" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0"/>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0"/>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0"/>
-    <xf numFmtId="0" fontId="30" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0"/>
-    <xf numFmtId="0" fontId="30" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0"/>
+    <xf numFmtId="0" fontId="31" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0"/>
+    <xf numFmtId="0" fontId="31" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0"/>
     <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0"/>
     <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0"/>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0"/>
-    <xf numFmtId="0" fontId="30" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0"/>
+    <xf numFmtId="0" fontId="31" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0"/>
+    <xf numFmtId="0" fontId="31" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0"/>
     <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0"/>
     <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0"/>
-    <xf numFmtId="0" fontId="30" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0"/>
-    <xf numFmtId="0" fontId="30" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0"/>
+    <xf numFmtId="0" fontId="31" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0"/>
+    <xf numFmtId="0" fontId="31" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0"/>
     <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0"/>
     <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0"/>
-    <xf numFmtId="0" fontId="30" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0"/>
-    <xf numFmtId="0" fontId="30" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0"/>
+    <xf numFmtId="0" fontId="31" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0"/>
+    <xf numFmtId="0" fontId="31" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0"/>
-    <xf numFmtId="0" fontId="30" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0"/>
-    <xf numFmtId="0" fontId="30" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0"/>
+    <xf numFmtId="0" fontId="31" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0"/>
+    <xf numFmtId="0" fontId="31" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0"/>
     <xf numFmtId="0" fontId="0" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0"/>
     <xf numFmtId="0" fontId="0" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0"/>
-    <xf numFmtId="0" fontId="30" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0"/>
+    <xf numFmtId="0" fontId="31" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0"/>
     <xf numFmtId="176" fontId="7" fillId="2" borderId="0" applyBorder="0">
       <alignment vertical="center"/>
     </xf>
@@ -1007,6 +989,9 @@
     <xf numFmtId="0" fontId="7" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1016,7 +1001,7 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1028,28 +1013,25 @@
     <xf numFmtId="9" fontId="8" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1058,7 +1040,7 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1402,10 +1384,10 @@
     <outlinePr showOutlineSymbols="0"/>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:N13"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1416,9 +1398,11 @@
     <col min="4" max="4" width="16.4416666666667" customWidth="1"/>
     <col min="5" max="5" width="28.2166666666667" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="9" customWidth="1"/>
+    <col min="7" max="7" width="8.875" customWidth="1"/>
     <col min="8" max="8" width="17.8833333333333" customWidth="1"/>
-    <col min="9" max="14" width="9" customWidth="1"/>
+    <col min="9" max="9" width="9" customWidth="1"/>
+    <col min="10" max="10" width="12.25" customWidth="1"/>
+    <col min="11" max="14" width="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:14">
@@ -1438,7 +1422,7 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1">
-        <f ca="1">I:I*F20</f>
+        <f>I:I*F20</f>
         <v>0</v>
       </c>
     </row>
@@ -1514,10 +1498,10 @@
         <v>10</v>
       </c>
       <c r="G5" s="15"/>
-      <c r="H5" s="15" t="s">
+      <c r="H5" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="15" t="s">
+      <c r="I5" s="16" t="s">
         <v>12</v>
       </c>
       <c r="J5" s="27" t="s">
@@ -1535,10 +1519,10 @@
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:14">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="18" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="11" t="s">
@@ -1553,11 +1537,11 @@
       <c r="F6" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15" t="s">
+      <c r="G6" s="16"/>
+      <c r="H6" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="I6" s="15" t="s">
+      <c r="I6" s="16" t="s">
         <v>24</v>
       </c>
       <c r="J6" s="27"/>
@@ -1567,92 +1551,90 @@
       <c r="N6" s="29"/>
     </row>
     <row r="7" customHeight="1" spans="1:14">
-      <c r="A7" s="18">
+      <c r="A7" s="19">
+        <f>ROW()-6</f>
         <v>1</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
       <c r="N7" s="29">
         <f>I7*L7</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:14">
-      <c r="A8" s="18">
+      <c r="A8" s="19">
+        <f>ROW()-6</f>
         <v>2</v>
       </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="15"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
       <c r="N8" s="29">
         <f>I8*L8</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:14">
-      <c r="A9" s="18">
+      <c r="A9" s="19">
+        <f>ROW()-6</f>
         <v>3</v>
       </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="15"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="16"/>
       <c r="N9" s="29">
         <f>I9*L9</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:14">
-      <c r="A10" s="18">
+      <c r="A10" s="19">
+        <f>ROW()-6</f>
         <v>4</v>
       </c>
-      <c r="B10" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="15"/>
+      <c r="B10" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="16"/>
       <c r="N10" s="29">
         <f>I10*L10</f>
         <v>0</v>
@@ -1660,29 +1642,29 @@
     </row>
     <row r="11" ht="14.25" customHeight="1" spans="1:14">
       <c r="A11" s="19"/>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="20" t="s">
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="F11" s="20" t="s">
+      <c r="G11" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="G11" s="20" t="s">
+      <c r="H11" s="22"/>
+      <c r="I11" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="H11" s="21"/>
-      <c r="I11" s="20" t="s">
+      <c r="J11" s="30"/>
+      <c r="K11" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="J11" s="30"/>
-      <c r="K11" s="20" t="s">
+      <c r="L11" s="31"/>
+      <c r="M11" s="21" t="s">
         <v>31</v>
-      </c>
-      <c r="L11" s="31"/>
-      <c r="M11" s="20" t="s">
-        <v>32</v>
       </c>
       <c r="N11" s="32">
         <f>SUM(N6:N10)</f>
@@ -1690,7 +1672,7 @@
       </c>
     </row>
     <row r="12" ht="15" customHeight="1" spans="1:14">
-      <c r="A12" s="22"/>
+      <c r="A12" s="19"/>
       <c r="B12" s="23"/>
       <c r="C12" s="23"/>
       <c r="D12" s="23"/>
@@ -1698,7 +1680,7 @@
       <c r="F12" s="23"/>
       <c r="G12" s="23"/>
       <c r="H12" s="24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I12" s="24"/>
       <c r="J12" s="24"/>
@@ -1707,15 +1689,12 @@
       <c r="M12" s="24"/>
       <c r="N12" s="24"/>
     </row>
-    <row r="13" ht="14.25"/>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <sheetProtection objects="1" scenarios="1"/>
-  <mergeCells count="5">
+  <mergeCells count="4">
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="A2:M2"/>
     <mergeCell ref="A4:M4"/>
-    <mergeCell ref="A11:D11"/>
     <mergeCell ref="H12:N12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
